--- a/AoC_2022/Day02.xlsx
+++ b/AoC_2022/Day02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27920"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AoC_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Advent of Code 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C94A90-44AB-42FF-9CC5-998DCF3F1E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E50F809-24C6-41DD-BF41-D782F684BC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3195" windowWidth="30195" windowHeight="17250" activeTab="1" xr2:uid="{22685AB0-EBFE-4E20-A41F-3B73F08F8FB8}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="28995" windowHeight="17520" activeTab="1" xr2:uid="{22685AB0-EBFE-4E20-A41F-3B73F08F8FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -50,16 +51,84 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>input=xl(%P2%)[0].values
+p1Dict=dict(xl(%P3%, headers=True).values)
+p2Dict=dict(xl(%P4%, headers=True).values)
+"Entrada datos y difinición de diccionarios"</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sum([p1Dict[a] for a in input])</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sum([p2Dict[a] for a in input])</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="48">
   <si>
     <t>A Y</t>
   </si>
@@ -948,12 +1017,526 @@
   <si>
     <t>Part 1</t>
   </si>
+  <si>
+    <t>Part 1 dictionary</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Part 2 dictionary</t>
+  </si>
+  <si>
+    <r>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>xl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>("A1:A2500")[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF0077"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>values</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p1Dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F700F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>xl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">("J11:K20", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF0077"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>headers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00758F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF0077"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p2Dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F700F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>xl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">("M11:N20", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF0077"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>headers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00758F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF0077"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Entrada datos y difinición de diccionarios"</t>
+  </si>
+  <si>
+    <r>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF0077"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p1Dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF0077"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF0077"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF0077"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([p2Dict[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF0077"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF0077"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>Parte1</t>
+  </si>
+  <si>
+    <t>Parte2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,6 +1593,32 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBF0077"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F700F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00758F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1037,7 +1646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1045,6 +1654,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,6 +1680,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <fb t="s">Entrada datos y difinición de diccionarios</fb>
+    <v>&lt;class 'str'&gt;</v>
+    <v>str</v>
+    <v>Entrada datos y difinición de diccionarios</v>
+    <v>Entrada datos y difinición de diccionarios</v>
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <fb>15422</fb>
+    <v>&lt;class 'int'&gt;</v>
+    <v>int</v>
+    <v>15422</v>
+    <v>15422</v>
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <fb>15442</fb>
+    <v>&lt;class 'int'&gt;</v>
+    <v>int</v>
+    <v>15442</v>
+    <v>15442</v>
+    <v>0</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="basicValue" t="s"/>
+    <k n="provider" t="spb"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="basicValue" t="i"/>
+    <k n="provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="1">
+    <spb s="0">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python proporcionado por Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <s>
+    <k n="url" t="s"/>
+    <k n="logoUrl" t="s"/>
+    <k n="description" t="s"/>
+  </s>
+</spbStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1381,12 +2107,39 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="696" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{6DABCE49-7AFD-45B7-80D0-447B359EBEC1}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-001" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B78F5F4-D88C-4FE9-ADE8-0EE818EC9E46}">
   <dimension ref="A2:J2501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -71416,16 +72169,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EFAA62-01C3-4AD8-85E0-1D3C3169572B}">
-  <dimension ref="A1:E2500"/>
+  <dimension ref="A1:Q2500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -71440,8 +72196,12 @@
 _xlfn.VSTACK(SUM(_xlpm.part1),SUM(_xlpm.part2)))</f>
         <v>15422</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="str" cm="1" vm="1">
+        <f t="array" ref="G1">_xlfn._xlws.PY(0,1,A1:A2500,J11:K20,M11:N20)</f>
+        <v>Entrada datos y difinición de diccionarios</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -71451,17 +72211,47 @@
       <c r="D2" s="3">
         <v>15442</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" cm="1" vm="2">
+        <f t="array" ref="G2">_xlfn._xlws.PY(1,1)</f>
+        <v>15422</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" cm="1" vm="3">
+        <f t="array" ref="G3">_xlfn._xlws.PY(2,1)</f>
+        <v>15442</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D1)</f>
         <v>=LET(
 input;A1:A2500;
@@ -71470,27 +72260,17 @@
 APILARV(SUMA(part1);SUMA(part2)))</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -71498,95 +72278,233 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:17" ht="15.75">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="J10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -71594,7 +72512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -71602,7 +72520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -71610,7 +72528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -71618,7 +72536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -71626,7 +72544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -71634,7 +72552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -71642,7 +72560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -71650,7 +72568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -71658,7 +72576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -71666,7 +72584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -71674,7 +72592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
